--- a/Outputs_study1/WithinAnalysis_GPT3.5.xlsx
+++ b/Outputs_study1/WithinAnalysis_GPT3.5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\u_backup\chatGPT\Revision\Nature human behavior\Final version\Data and Code\Outputs_study1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\u_backup\chatGPT\Revision\Scientific reports\Data and Code\Outputs_study1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E2F076-9D8A-41B9-8054-F21B8A17C3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A631DC-7CA9-4AA0-9113-ED0DF02EF876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>frame</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>ci_up</t>
+  </si>
+  <si>
+    <t>p_adj</t>
   </si>
   <si>
     <t>6 lives</t>
@@ -161,9 +164,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -460,15 +464,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,21 +494,24 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>2.5606918707925099</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>1.04463961550818E-2</v>
       </c>
       <c r="F2">
@@ -513,16 +520,19 @@
       <c r="G2">
         <v>2.6957631775814601</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2" s="1">
+        <v>2.08927923101636E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0.42172891130377599</v>
@@ -536,16 +546,19 @@
       <c r="G3">
         <v>0.55841861409669802</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3">
+        <v>0.71282424626615604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0.70589672102391898</v>
@@ -559,16 +572,19 @@
       <c r="G4">
         <v>0.84200256065647106</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4">
+        <v>0.54028391269977205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>1.6884702179839099</v>
@@ -582,21 +598,24 @@
       <c r="G5">
         <v>1.8250340707100201</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5">
+        <v>0.12644446329689199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>2.8092139087829899</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>4.9662636854594898E-3</v>
       </c>
       <c r="F6">
@@ -605,21 +624,24 @@
       <c r="G6">
         <v>2.9460161161313798</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6" s="1">
+        <v>1.11740932922839E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>2.1235074333820099</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>3.3711353265541998E-2</v>
       </c>
       <c r="F7">
@@ -628,21 +650,24 @@
       <c r="G7">
         <v>2.2592404160857402</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7" s="2">
+        <v>6.06804358779756E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>3.2245206591162598</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>1.2618375178099499E-3</v>
       </c>
       <c r="F8">
@@ -651,16 +676,19 @@
       <c r="G8">
         <v>3.3615806162082098</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8" s="1">
+        <v>3.7855125534298501E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>2.0170215835176499</v>
@@ -674,21 +702,24 @@
       <c r="G9">
         <v>2.1503938125225401</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9">
+        <v>7.1498063401919207E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>-2.8356645251461301</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>4.5730454050458801E-3</v>
       </c>
       <c r="F10">
@@ -697,16 +728,19 @@
       <c r="G10">
         <v>-2.7001383864836299</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10" s="1">
+        <v>1.11740932922839E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>-0.28027161038395598</v>
@@ -720,21 +754,24 @@
       <c r="G11">
         <v>-0.143152241387279</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11">
+        <v>0.77926912991002195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>5.5138894747554801</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>3.5098906669972501E-8</v>
       </c>
       <c r="F12">
@@ -743,21 +780,24 @@
       <c r="G12">
         <v>5.6149514682579698</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H12" s="1">
+        <v>6.3178032005950502E-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>5.2659283953190998</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>1.3948264698804299E-7</v>
       </c>
       <c r="F13">
@@ -766,21 +806,24 @@
       <c r="G13">
         <v>5.36445119262277</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H13" s="1">
+        <v>1.2553438228923901E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>-3.6136299588328198</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>3.01939905374082E-4</v>
       </c>
       <c r="F14">
@@ -789,16 +832,19 @@
       <c r="G14">
         <v>-3.5338680570858099</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H14" s="1">
+        <v>1.35872957418337E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>-1.7553094651063701</v>
@@ -812,21 +858,24 @@
       <c r="G15">
         <v>-1.6567866678026999</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H15">
+        <v>0.118809582542705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>3.4037016886303602</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>6.6479313577527698E-4</v>
       </c>
       <c r="F16">
@@ -835,16 +884,19 @@
       <c r="G16">
         <v>3.53354639995066</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H16" s="1">
+        <v>2.3932552887910002E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>-1.44072970251261</v>
@@ -858,16 +910,19 @@
       <c r="G17">
         <v>-1.30735747350773</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H17">
+        <v>0.19242136302349999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>1.0164537837863801</v>
@@ -881,21 +936,24 @@
       <c r="G18">
         <v>1.14878378680069</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H18">
+        <v>0.37129601394927902</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>-3.7823925637740898</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>1.55328141508537E-4</v>
       </c>
       <c r="F19">
@@ -903,6 +961,9 @@
       </c>
       <c r="G19">
         <v>-3.6452270033093699</v>
+      </c>
+      <c r="H19" s="1">
+        <v>9.3196884905122302E-4</v>
       </c>
     </row>
   </sheetData>
